--- a/new-book.xlsx
+++ b/new-book.xlsx
@@ -397,334 +397,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>_id</v>
+        <v>Codigo SKU</v>
       </c>
       <c r="B1" t="str">
-        <v>editor_name</v>
+        <v>Stock Anterior</v>
       </c>
       <c r="C1" t="str">
-        <v>description</v>
+        <v>Stock Actual</v>
       </c>
       <c r="D1" t="str">
-        <v>stock_modificate</v>
-      </c>
-      <c r="E1" t="str">
-        <v>date</v>
-      </c>
-      <c r="F1" t="str">
-        <v>__v</v>
+        <v>Deposito</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6399cb46b014c40f8b12bffb</v>
+        <v>SSSSSSSSSSSSSS</v>
       </c>
       <c r="B2" t="str">
-        <v>Lautaro Robutti</v>
+        <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="D2" t="str">
+        <v>Principal</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6399cb46b014c40f8b12bffc</v>
+        <v>AAAAAAAAAA</v>
       </c>
       <c r="B3" t="str">
-        <v>Ju</v>
+        <v>1</v>
       </c>
       <c r="C3" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Principal</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6399cb46b014c40f8b12bffd</v>
+        <v>BBBBBBBBBBBB</v>
       </c>
       <c r="B4" t="str">
-        <v>Juan Bascuñan 3</v>
+        <v>3</v>
       </c>
       <c r="C4" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>6399d0232ba9b7e6cb76e083</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Juan Bascuñan 1</v>
-      </c>
-      <c r="C5" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>6399d0232ba9b7e6cb76e084</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Juan Bascuñan 2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>6399d0232ba9b7e6cb76e085</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Juan Bascuñan 3</v>
-      </c>
-      <c r="C7" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>6399d05e5891390db62b4014</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Juan Bascuñan 1</v>
-      </c>
-      <c r="C8" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>6399d05e5891390db62b4015</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Juan Bascuñan 2</v>
-      </c>
-      <c r="C9" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>6399d05e5891390db62b4016</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Juan Bascuñan 3</v>
-      </c>
-      <c r="C10" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>6399d0c7e2c4a9c3a8c20117</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Juan Bascuñan 1</v>
-      </c>
-      <c r="C11" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>6399d0c7e2c4a9c3a8c20118</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Juan Bascuñan 2</v>
-      </c>
-      <c r="C12" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>6399d0c7e2c4a9c3a8c20119</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Juan Bascuñan 3</v>
-      </c>
-      <c r="C13" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>639a564a21bc20c6f380efda</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Juan Bascuñan 1</v>
-      </c>
-      <c r="C14" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>639a564a21bc20c6f380efdb</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Juan Bascuñan 2</v>
-      </c>
-      <c r="C15" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>639a564a21bc20c6f380efdc</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Juan Bascuñan 3</v>
-      </c>
-      <c r="C16" t="str">
-        <v>UN-SKU-DE-PRUEBNA</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="str">
-        <v>22/22/22</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Principal</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/new-book.xlsx
+++ b/new-book.xlsx
@@ -397,70 +397,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Codigo SKU</v>
+        <v>_id</v>
       </c>
       <c r="B1" t="str">
-        <v>Stock Anterior</v>
+        <v>editor_name</v>
       </c>
       <c r="C1" t="str">
-        <v>Stock Actual</v>
+        <v>description</v>
       </c>
       <c r="D1" t="str">
-        <v>Deposito</v>
+        <v>stock_modificate</v>
+      </c>
+      <c r="E1" t="str">
+        <v>date</v>
+      </c>
+      <c r="F1" t="str">
+        <v>__v</v>
+      </c>
+      <c r="G1" t="str">
+        <v>action</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SSSSSSSSSSSSSS</v>
+        <v>639c6df4a65fc6734d7e86eb</v>
       </c>
       <c r="B2" t="str">
-        <v>1</v>
+        <v>Lautaro</v>
       </c>
       <c r="C2" t="str">
-        <v>4</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Principal</v>
+        <v xml:space="preserve"> REM-BILLABONG-PALMERA-BLANCA-S</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <v>16/12/22</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>AAAAAAAAAA</v>
+        <v>639c6df4a65fc6734d7e86ec</v>
       </c>
       <c r="B3" t="str">
-        <v>1</v>
+        <v>Lautaro</v>
       </c>
       <c r="C3" t="str">
-        <v>22</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Principal</v>
+        <v xml:space="preserve"> BERM-HOLLI-GAB-ELA-CAMEL-M</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>16/12/22</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>BBBBBBBBBBBB</v>
+        <v>639c6e43a65fc6734d7e86ef</v>
       </c>
       <c r="B4" t="str">
+        <v>Pato</v>
+      </c>
+      <c r="C4" t="str">
+        <v xml:space="preserve"> BERM-HOLLI-GAB-ELA-CAMEL-M</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>16/12/22</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>639c6e43a65fc6734d7e86f0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pato</v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve"> REM-BILLABONG-PALMERA-BLANCA-S</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>16/12/22</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>639c8285a65fc6734d7e86f6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C6" t="str">
+        <v>SW-PENGUIN-HILO-FRANCIA-XXL</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
-        <v>2</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Principal</v>
+      <c r="E6" t="str">
+        <v>16/12/22</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>639c82d3a65fc6734d7e86f8</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C7" t="str">
+        <v>SW-PENGUIN-HILO-FRANCIA-XXL</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>16/12/22</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>63a22437d505e5b7a892002c</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C8" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-S</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Sumar</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>63a22437d505e5b7a892002d</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-XL</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Sumar</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>63a22437d505e5b7a892002e</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-M</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Sumar</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>63a22565d505e5b7a8920031</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-S</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Restar</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>63a22565d505e5b7a8920032</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-M</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Restar</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>63a22565d505e5b7a8920033</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-XL</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Restar</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>63a2264bd505e5b7a8920035</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C14" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-S</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Sumar</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>63a22baad505e5b7a8920039</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Lautaro</v>
+      </c>
+      <c r="C15" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-S</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Sumar</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>63a236a8d505e5b7a8920042</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Mariana</v>
+      </c>
+      <c r="C16" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-S</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Sumar</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>63a236dad505e5b7a8920044</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Mariana</v>
+      </c>
+      <c r="C17" t="str">
+        <v>SW-PENGUIN-HILO-VERDE-S</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>20/12/22</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Restar</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G17"/>
   </ignoredErrors>
 </worksheet>
 </file>